--- a/biology/Zoologie/Austrochaperina_blumi/Austrochaperina_blumi.xlsx
+++ b/biology/Zoologie/Austrochaperina_blumi/Austrochaperina_blumi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Austrochaperina blumi est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austrochaperina blumi est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique de Nouvelle-Guinée. Elle se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique de Nouvelle-Guinée. Elle se rencontre :
 en Papouasie en Nouvelle-Guinée occidentale en Indonésie sur le versant Nord de la chaîne Centrale ;
 en Papouasie-Nouvelle-Guinée dans les monts Hunstein dans la province du Sepik oriental et dans les monts Torricelli et les monts Bewani dans la province de Sandaun.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, blumi, lui a été donné en référence à J. Paul Blum, herpétologue, en reconnaissance de ses travaux sur les amphibiens de Nouvelle-Guinée occidentale (entre autres, Blum et Menzies, 1988[2]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, blumi, lui a été donné en référence à J. Paul Blum, herpétologue, en reconnaissance de ses travaux sur les amphibiens de Nouvelle-Guinée occidentale (entre autres, Blum et Menzies, 1988).
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Austrochaperina blumi mesure environ 25 mm. Son dos est beige-verdâtre avec de petites taches brunes.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Zweifel, 2000 : Partition of the Australopapuan microhylid frog genus Sphenophryne with descriptions of new species. Bulletin of the American Museum of Natural History, vol. 253, p. 1-130 (texte intégral).</t>
         </is>
